--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc102_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -882,10 +894,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -929,28 +941,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -975,28 +987,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1241,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1276,28 +1288,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1334,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1518,10 +1530,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1565,28 +1577,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1611,28 +1623,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1819,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1854,28 +1866,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1912,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2096,10 +2108,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2143,28 +2155,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2189,28 +2201,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2356,10 +2368,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2403,28 +2415,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2449,28 +2461,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2616,10 +2628,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2663,28 +2675,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2709,28 +2721,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2905,10 +2917,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2952,28 +2964,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2998,28 +3010,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3165,10 +3177,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3212,28 +3224,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3258,28 +3270,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3425,10 +3437,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3472,28 +3484,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3518,28 +3530,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3685,10 +3697,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3732,28 +3744,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3778,28 +3790,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3974,10 +3986,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4021,28 +4033,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4067,28 +4079,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4205,10 +4217,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4252,28 +4264,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4298,28 +4310,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4465,10 +4477,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4512,28 +4524,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4558,28 +4570,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4667,10 +4679,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4714,28 +4726,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4760,28 +4772,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4840,10 +4852,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4887,28 +4899,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4933,28 +4945,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5100,10 +5112,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5147,28 +5159,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5193,28 +5205,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5331,10 +5343,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5378,28 +5390,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5424,28 +5436,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5562,10 +5574,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5609,28 +5621,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5655,28 +5667,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5764,10 +5776,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5811,28 +5823,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5857,28 +5869,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5966,10 +5978,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6013,28 +6025,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6059,28 +6071,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6168,10 +6180,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6215,28 +6227,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6261,28 +6273,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6370,10 +6382,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6417,28 +6429,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6463,28 +6475,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6543,10 +6555,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6590,28 +6602,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6636,28 +6648,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6745,10 +6757,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6792,28 +6804,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6838,28 +6850,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6918,10 +6930,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6965,28 +6977,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7011,28 +7023,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7091,10 +7103,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
